--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766207</v>
+        <v>766206</v>
       </c>
       <c r="D2" t="n">
         <v>155966</v>
       </c>
       <c r="E2" t="n">
-        <v>1428874112</v>
+        <v>1428873872</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345453</v>
+        <v>345448</v>
       </c>
       <c r="D10" t="n">
         <v>64164</v>
       </c>
       <c r="E10" t="n">
-        <v>1816729395</v>
+        <v>1816668803</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187763</v>
+        <v>187760</v>
       </c>
       <c r="D13" t="n">
         <v>33259</v>
       </c>
       <c r="E13" t="n">
-        <v>1162522376</v>
+        <v>1162504460</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>211191</v>
+        <v>211189</v>
       </c>
       <c r="D36" t="n">
         <v>48185</v>
       </c>
       <c r="E36" t="n">
-        <v>404207239</v>
+        <v>404207167</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31590</v>
+        <v>31589</v>
       </c>
       <c r="D57" t="n">
         <v>6017</v>
       </c>
       <c r="E57" t="n">
-        <v>162173592</v>
+        <v>162167845</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27092</v>
+        <v>27091</v>
       </c>
       <c r="D67" t="n">
         <v>4262</v>
       </c>
       <c r="E67" t="n">
-        <v>168553916</v>
+        <v>168553316</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331302</v>
+        <v>331301</v>
       </c>
       <c r="D72" t="n">
         <v>71641</v>
       </c>
       <c r="E72" t="n">
-        <v>635354885</v>
+        <v>635348916</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178406</v>
+        <v>178404</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892017619</v>
+        <v>892005395</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D79" t="n">
         <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>20349120</v>
+        <v>20307920</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18405</v>
+        <v>18404</v>
       </c>
       <c r="D91" t="n">
         <v>3382</v>
       </c>
       <c r="E91" t="n">
-        <v>72117092</v>
+        <v>72097061</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16555</v>
+        <v>16554</v>
       </c>
       <c r="D93" t="n">
         <v>2942</v>
       </c>
       <c r="E93" t="n">
-        <v>48245887</v>
+        <v>48244387</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145188</v>
+        <v>145185</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>715584525</v>
+        <v>715559271</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81784</v>
+        <v>81783</v>
       </c>
       <c r="D115" t="n">
-        <v>14448</v>
+        <v>14447</v>
       </c>
       <c r="E115" t="n">
-        <v>435971242</v>
+        <v>435968262</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1305809</v>
+        <v>1305802</v>
       </c>
       <c r="D121" t="n">
         <v>220376</v>
       </c>
       <c r="E121" t="n">
-        <v>2273436091</v>
+        <v>2273392960</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9137</v>
+        <v>9136</v>
       </c>
       <c r="D127" t="n">
         <v>1296</v>
       </c>
       <c r="E127" t="n">
-        <v>110235394</v>
+        <v>110233894</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5658,13 +5658,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D128" t="n">
         <v>40</v>
       </c>
       <c r="E128" t="n">
-        <v>5719119</v>
+        <v>5709119</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>632760</v>
+        <v>632748</v>
       </c>
       <c r="D129" t="n">
         <v>104958</v>
       </c>
       <c r="E129" t="n">
-        <v>3417328694</v>
+        <v>3417175036</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>139050789</v>
+        <v>139004203</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585038</v>
+        <v>585033</v>
       </c>
       <c r="D132" t="n">
         <v>90767</v>
       </c>
       <c r="E132" t="n">
-        <v>3441943057</v>
+        <v>3441706448</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26632</v>
+        <v>26629</v>
       </c>
       <c r="D136" t="n">
         <v>4272</v>
       </c>
       <c r="E136" t="n">
-        <v>141844738</v>
+        <v>141829041</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24513</v>
+        <v>24512</v>
       </c>
       <c r="D144" t="n">
         <v>6169</v>
       </c>
       <c r="E144" t="n">
-        <v>88165149</v>
+        <v>88163649</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39269</v>
+        <v>39255</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>59810882</v>
+        <v>59799025</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>17975</v>
+        <v>17967</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>69519959</v>
+        <v>69446902</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D157" t="n">
         <v>133</v>
       </c>
       <c r="E157" t="n">
-        <v>1388087</v>
+        <v>1385587</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95810</v>
+        <v>95809</v>
       </c>
       <c r="D171" t="n">
         <v>18308</v>
       </c>
       <c r="E171" t="n">
-        <v>490330707</v>
+        <v>490329269</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>595464</v>
+        <v>595463</v>
       </c>
       <c r="D196" t="n">
         <v>127119</v>
       </c>
       <c r="E196" t="n">
-        <v>983955743</v>
+        <v>983954243</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230236</v>
+        <v>230234</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408662557</v>
+        <v>408661646</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135467</v>
+        <v>135466</v>
       </c>
       <c r="D221" t="n">
         <v>27175</v>
       </c>
       <c r="E221" t="n">
-        <v>681713588</v>
+        <v>681712088</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>612510</v>
+        <v>612508</v>
       </c>
       <c r="D229" t="n">
         <v>121243</v>
       </c>
       <c r="E229" t="n">
-        <v>1040628728</v>
+        <v>1040624400</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283249</v>
+        <v>283247</v>
       </c>
       <c r="D237" t="n">
         <v>49794</v>
       </c>
       <c r="E237" t="n">
-        <v>1437577049</v>
+        <v>1437565257</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205848</v>
+        <v>205847</v>
       </c>
       <c r="D240" t="n">
         <v>33982</v>
       </c>
       <c r="E240" t="n">
-        <v>1066948938</v>
+        <v>1066946940</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766206</v>
+        <v>766207</v>
       </c>
       <c r="D2" t="n">
         <v>155966</v>
       </c>
       <c r="E2" t="n">
-        <v>1428873872</v>
+        <v>1428874112</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345448</v>
+        <v>345453</v>
       </c>
       <c r="D10" t="n">
         <v>64164</v>
       </c>
       <c r="E10" t="n">
-        <v>1816668803</v>
+        <v>1816729395</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187760</v>
+        <v>187763</v>
       </c>
       <c r="D13" t="n">
         <v>33259</v>
       </c>
       <c r="E13" t="n">
-        <v>1162504460</v>
+        <v>1162522376</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>211189</v>
+        <v>211191</v>
       </c>
       <c r="D36" t="n">
         <v>48185</v>
       </c>
       <c r="E36" t="n">
-        <v>404207167</v>
+        <v>404207239</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31589</v>
+        <v>31590</v>
       </c>
       <c r="D57" t="n">
         <v>6017</v>
       </c>
       <c r="E57" t="n">
-        <v>162167845</v>
+        <v>162173592</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27091</v>
+        <v>27092</v>
       </c>
       <c r="D67" t="n">
         <v>4262</v>
       </c>
       <c r="E67" t="n">
-        <v>168553316</v>
+        <v>168553916</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331301</v>
+        <v>331302</v>
       </c>
       <c r="D72" t="n">
         <v>71641</v>
       </c>
       <c r="E72" t="n">
-        <v>635348916</v>
+        <v>635354885</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178404</v>
+        <v>178406</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892005395</v>
+        <v>892017619</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D79" t="n">
         <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>20307920</v>
+        <v>20349120</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18404</v>
+        <v>18405</v>
       </c>
       <c r="D91" t="n">
         <v>3382</v>
       </c>
       <c r="E91" t="n">
-        <v>72097061</v>
+        <v>72117092</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16554</v>
+        <v>16555</v>
       </c>
       <c r="D93" t="n">
         <v>2942</v>
       </c>
       <c r="E93" t="n">
-        <v>48244387</v>
+        <v>48245887</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145185</v>
+        <v>145188</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>715559271</v>
+        <v>715584525</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81783</v>
+        <v>81784</v>
       </c>
       <c r="D115" t="n">
-        <v>14447</v>
+        <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>435968262</v>
+        <v>435971242</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1305802</v>
+        <v>1305809</v>
       </c>
       <c r="D121" t="n">
         <v>220376</v>
       </c>
       <c r="E121" t="n">
-        <v>2273392960</v>
+        <v>2273436091</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9136</v>
+        <v>9137</v>
       </c>
       <c r="D127" t="n">
         <v>1296</v>
       </c>
       <c r="E127" t="n">
-        <v>110233894</v>
+        <v>110235394</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5658,13 +5658,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D128" t="n">
         <v>40</v>
       </c>
       <c r="E128" t="n">
-        <v>5709119</v>
+        <v>5719119</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>632748</v>
+        <v>632760</v>
       </c>
       <c r="D129" t="n">
         <v>104958</v>
       </c>
       <c r="E129" t="n">
-        <v>3417175036</v>
+        <v>3417328694</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>139004203</v>
+        <v>139050789</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585033</v>
+        <v>585038</v>
       </c>
       <c r="D132" t="n">
         <v>90767</v>
       </c>
       <c r="E132" t="n">
-        <v>3441706448</v>
+        <v>3441943057</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26629</v>
+        <v>26632</v>
       </c>
       <c r="D136" t="n">
         <v>4272</v>
       </c>
       <c r="E136" t="n">
-        <v>141829041</v>
+        <v>141844738</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24512</v>
+        <v>24513</v>
       </c>
       <c r="D144" t="n">
         <v>6169</v>
       </c>
       <c r="E144" t="n">
-        <v>88163649</v>
+        <v>88165149</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39255</v>
+        <v>39269</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>59799025</v>
+        <v>59810882</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>17967</v>
+        <v>17975</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>69446902</v>
+        <v>69519959</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D157" t="n">
         <v>133</v>
       </c>
       <c r="E157" t="n">
-        <v>1385587</v>
+        <v>1388087</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95809</v>
+        <v>95810</v>
       </c>
       <c r="D171" t="n">
         <v>18308</v>
       </c>
       <c r="E171" t="n">
-        <v>490329269</v>
+        <v>490330707</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>595463</v>
+        <v>595464</v>
       </c>
       <c r="D196" t="n">
         <v>127119</v>
       </c>
       <c r="E196" t="n">
-        <v>983954243</v>
+        <v>983955743</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230234</v>
+        <v>230236</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408661646</v>
+        <v>408662557</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135466</v>
+        <v>135467</v>
       </c>
       <c r="D221" t="n">
         <v>27175</v>
       </c>
       <c r="E221" t="n">
-        <v>681712088</v>
+        <v>681713588</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>612508</v>
+        <v>612510</v>
       </c>
       <c r="D229" t="n">
         <v>121243</v>
       </c>
       <c r="E229" t="n">
-        <v>1040624400</v>
+        <v>1040628728</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283247</v>
+        <v>283249</v>
       </c>
       <c r="D237" t="n">
         <v>49794</v>
       </c>
       <c r="E237" t="n">
-        <v>1437565257</v>
+        <v>1437577049</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205847</v>
+        <v>205848</v>
       </c>
       <c r="D240" t="n">
         <v>33982</v>
       </c>
       <c r="E240" t="n">
-        <v>1066946940</v>
+        <v>1066948938</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
